--- a/Mifos Automation Excels/Client/7RBI-EI-DB-DL-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/7RBI-EI-DB-DL-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>click</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>7RBI-EI-DB-DL-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME</t>
+  </si>
+  <si>
+    <t>disburse</t>
+  </si>
+  <si>
+    <t>actualdisbursedate</t>
   </si>
 </sst>
 </file>
@@ -482,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -579,6 +585,22 @@
         <v>6</v>
       </c>
       <c r="B11" s="3">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
         <v>42005</v>
       </c>
     </row>
